--- a/SQLACCT.xlsx
+++ b/SQLACCT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinpacker/Db2-DDF-Analysis-Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB360DEB-5B22-8544-82CA-21D86A0F1B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587DCEDD-74EB-FE42-9821-C4D52449FA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="3540" windowWidth="26460" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="760" windowWidth="32520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQLCORRS-10" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>By Subsystem By Day</t>
   </si>
@@ -120,6 +120,75 @@
   </si>
   <si>
     <t>CORRB</t>
+  </si>
+  <si>
+    <t>Global Hit</t>
+  </si>
+  <si>
+    <t>Global Miss</t>
+  </si>
+  <si>
+    <t>Local Hit</t>
+  </si>
+  <si>
+    <t>Local Miss</t>
+  </si>
+  <si>
+    <t>Local Invalidated</t>
+  </si>
+  <si>
+    <t>SELECTs Per</t>
+  </si>
+  <si>
+    <t>INSERTs Per</t>
+  </si>
+  <si>
+    <t>UPDATEs Per</t>
+  </si>
+  <si>
+    <t>DELETEs Per</t>
+  </si>
+  <si>
+    <t>DESCRIBEs Per</t>
+  </si>
+  <si>
+    <t>PREPAREs Per</t>
+  </si>
+  <si>
+    <t>OPENs Per</t>
+  </si>
+  <si>
+    <t>CLOSEs Per</t>
+  </si>
+  <si>
+    <t>FETCHes Per</t>
+  </si>
+  <si>
+    <t>Call SPs Per</t>
+  </si>
+  <si>
+    <t>Call UDFs Per</t>
+  </si>
+  <si>
+    <t>Global Hit Per</t>
+  </si>
+  <si>
+    <t>Global Miss Per</t>
+  </si>
+  <si>
+    <t>Local Hit Per</t>
+  </si>
+  <si>
+    <t>Local Miss Per</t>
+  </si>
+  <si>
+    <t>Local Invalidated Per</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  </t>
   </si>
 </sst>
 </file>
@@ -687,10 +756,10 @@
             <a:pPr>
               <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -699,7 +768,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>SQL Statements Per Commit - CORRA vs CORRB</a:t>
+              <a:t>SQL Statements Per Commit  - CORRA vs CORRB </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -719,10 +788,10 @@
           <a:pPr>
             <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -745,11 +814,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$S$2</c:f>
+              <c:f>'SQLCORRS-10'!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SELECT / Commit</c:v>
+                  <c:v>SELECTs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -852,40 +921,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$S$3:$S$10</c:f>
+              <c:f>'SQLCORRS-10'!$X$3:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.8719782566185517</c:v>
+                  <c:v>1.871</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8567673477203104</c:v>
+                  <c:v>1.8560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8912722291785748</c:v>
+                  <c:v>1.891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8358792731976445</c:v>
+                  <c:v>1.835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28426014611151801</c:v>
+                  <c:v>0.28199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24865314001102051</c:v>
+                  <c:v>0.247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28302046509878032</c:v>
+                  <c:v>0.28199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2210886034837006</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000000-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -894,11 +963,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$T$2</c:f>
+              <c:f>'SQLCORRS-10'!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INSERT / Commit</c:v>
+                  <c:v>INSERTs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1001,40 +1070,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$T$3:$T$10</c:f>
+              <c:f>'SQLCORRS-10'!$Y$3:$Y$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.31619196189383836</c:v>
+                  <c:v>0.316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32407539039553629</c:v>
+                  <c:v>0.32400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3217361795199421</c:v>
+                  <c:v>0.32100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33427819385591484</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0542816183697361E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.36636940777088E-2</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1066752136875813</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9065423530159356E-2</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000001-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1043,11 +1112,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$U$2</c:f>
+              <c:f>'SQLCORRS-10'!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UPDATE / Commit</c:v>
+                  <c:v>UPDATEs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1150,40 +1219,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$U$3:$U$10</c:f>
+              <c:f>'SQLCORRS-10'!$Z$3:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.19173153465515835</c:v>
+                  <c:v>0.191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19103357660558759</c:v>
+                  <c:v>0.191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19191453645266457</c:v>
+                  <c:v>0.191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19474602985795628</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1875160415923273E-2</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3155897491655743E-2</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9607512310459444E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8619828992240394E-2</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000002-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1192,11 +1261,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$V$2</c:f>
+              <c:f>'SQLCORRS-10'!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DELETE / Commit</c:v>
+                  <c:v>DELETEs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1299,40 +1368,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$V$3:$V$10</c:f>
+              <c:f>'SQLCORRS-10'!$AA$3:$AA$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.2474708280391059E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3965456729196943E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5310386633163942E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3371429673094628E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1710700446347525</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17411626051127993</c:v>
+                  <c:v>0.17299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16157270008204561</c:v>
+                  <c:v>0.161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19037763625195048</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000003-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1341,11 +1410,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$W$2</c:f>
+              <c:f>'SQLCORRS-10'!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DESCRIBE / Commit</c:v>
+                  <c:v>DESCRIBEs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1448,7 +1517,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$W$3:$W$10</c:f>
+              <c:f>'SQLCORRS-10'!$AB$3:$AB$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1465,23 +1534,23 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10827714863435185</c:v>
+                  <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10430438129678438</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10142617558918735</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11154602452852835</c:v>
+                  <c:v>0.111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000004-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1490,11 +1559,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$X$2</c:f>
+              <c:f>'SQLCORRS-10'!$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PREPARE / Commit</c:v>
+                  <c:v>PREPAREs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1597,7 +1666,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$X$3:$X$10</c:f>
+              <c:f>'SQLCORRS-10'!$AC$3:$AC$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1614,23 +1683,23 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80210966502025149</c:v>
+                  <c:v>0.79800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81757539026555981</c:v>
+                  <c:v>0.81399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82086346134088872</c:v>
+                  <c:v>0.81799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86643460824254581</c:v>
+                  <c:v>0.86299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000005-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1639,11 +1708,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$Y$2</c:f>
+              <c:f>'SQLCORRS-10'!$AD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OPEN / Commit</c:v>
+                  <c:v>OPENs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1748,40 +1817,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$Y$3:$Y$10</c:f>
+              <c:f>'SQLCORRS-10'!$AD$3:$AD$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.28407978652973143</c:v>
+                  <c:v>0.28399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28644993282863163</c:v>
+                  <c:v>0.28599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28391611987967708</c:v>
+                  <c:v>0.28299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27419797801666956</c:v>
+                  <c:v>0.27400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9184467356533389</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93951529819517066</c:v>
+                  <c:v>0.93600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89321843088850916</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97552089584907264</c:v>
+                  <c:v>0.97099999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000006-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1790,11 +1859,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$Z$2</c:f>
+              <c:f>'SQLCORRS-10'!$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CLOSE / Commit</c:v>
+                  <c:v>CLOSEs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1899,40 +1968,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$Z$3:$Z$10</c:f>
+              <c:f>'SQLCORRS-10'!$AE$3:$AE$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.2470569356353469E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0268831969238381E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8589418136696615E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7369737472459E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7960323273298652E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5108631380847775E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9057531772778519E-3</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7394285149437624E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000007-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1941,11 +2010,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$AA$2</c:f>
+              <c:f>'SQLCORRS-10'!$AF$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FETCH / Commit</c:v>
+                  <c:v>FETCHes Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2050,40 +2119,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$AA$3:$AA$10</c:f>
+              <c:f>'SQLCORRS-10'!$AF$3:$AF$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.5321463741008588E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.55483240790012E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6575359398841992E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0619308329359279E-3</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23626119781396135</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21136724997600587</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22640537478349074</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21693873516391185</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000008-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2092,11 +2161,11 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$AB$2</c:f>
+              <c:f>'SQLCORRS-10'!$AG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Call SP / Commit</c:v>
+                  <c:v>Call SPs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2201,7 +2270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$AB$3:$AB$10</c:f>
+              <c:f>'SQLCORRS-10'!$AG$3:$AG$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2218,23 +2287,23 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27134298645933103</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23263512057811453</c:v>
+                  <c:v>0.23100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24463049810513704</c:v>
+                  <c:v>0.24299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23774279642168733</c:v>
+                  <c:v>0.23599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{00000009-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2243,11 +2312,11 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SQLCORRS-10'!$AC$2</c:f>
+              <c:f>'SQLCORRS-10'!$AH$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Call UDF / Commit</c:v>
+                  <c:v>Call UDFs Per</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2352,7 +2421,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SQLCORRS-10'!$AC$3:$AC$10</c:f>
+              <c:f>'SQLCORRS-10'!$AH$3:$AH$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2369,23 +2438,23 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0674654597129104E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3558240662251744E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1705188552972958E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3537855413009863E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-94AD-0D48-B355-9F8A962CFA11}"/>
+              <c16:uniqueId val="{0000000A-2D38-8945-AFE2-1B38BEA54A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2399,11 +2468,11 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="7324960"/>
-        <c:axId val="391451328"/>
+        <c:axId val="2128952080"/>
+        <c:axId val="1897889840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="7324960"/>
+        <c:axId val="2128952080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391451328"/>
+        <c:crossAx val="1897889840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2454,7 +2523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="391451328"/>
+        <c:axId val="1897889840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +2574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7324960"/>
+        <c:crossAx val="2128952080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3139,27 +3208,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5587417B-B4CD-6B2F-F796-6E3E39DC00C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512A163F-4A7C-7A4F-859A-EBE00897479D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3473,20 +3544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3541,52 +3612,74 @@
       <c r="R2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="str">
-        <f>_xlfn.CONCAT(H2," / Commit")</f>
-        <v>SELECT / Commit</v>
-      </c>
-      <c r="T2" t="str">
-        <f t="shared" ref="T2:AB2" si="0">_xlfn.CONCAT(I2," / Commit")</f>
-        <v>INSERT / Commit</v>
-      </c>
-      <c r="U2" t="str">
-        <f t="shared" si="0"/>
-        <v>UPDATE / Commit</v>
-      </c>
-      <c r="V2" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE / Commit</v>
-      </c>
-      <c r="W2" t="str">
-        <f t="shared" si="0"/>
-        <v>DESCRIBE / Commit</v>
-      </c>
-      <c r="X2" t="str">
-        <f t="shared" si="0"/>
-        <v>PREPARE / Commit</v>
-      </c>
-      <c r="Y2" t="str">
-        <f t="shared" si="0"/>
-        <v>OPEN / Commit</v>
-      </c>
-      <c r="Z2" t="str">
-        <f t="shared" si="0"/>
-        <v>CLOSE / Commit</v>
-      </c>
-      <c r="AA2" t="str">
-        <f t="shared" si="0"/>
-        <v>FETCH / Commit</v>
-      </c>
-      <c r="AB2" t="str">
-        <f t="shared" si="0"/>
-        <v>Call SP / Commit</v>
-      </c>
-      <c r="AC2" t="str">
-        <f>_xlfn.CONCAT(R2," / Commit")</f>
-        <v>Call UDF / Commit</v>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3642,51 +3735,73 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S30" si="1">H3/$F3</f>
-        <v>1.8719782566185517</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T30" si="2">I3/$F3</f>
-        <v>0.31619196189383836</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U30" si="3">J3/$F3</f>
-        <v>0.19173153465515835</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V30" si="4">K3/$F3</f>
-        <v>2.2474708280391059E-4</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W30" si="5">L3/$F3</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X30" si="6">M3/$F3</f>
-        <v>0</v>
+        <v>1.871</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y30" si="7">N3/$F3</f>
-        <v>0.28407978652973143</v>
+        <v>0.316</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z30" si="8">O3/$F3</f>
-        <v>6.2470569356353469E-3</v>
+        <v>0.191</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA30" si="9">P3/$F3</f>
-        <v>8.5321463741008588E-3</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB30" si="10">Q3/$F3</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC30" si="11">R3/$F3</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AE3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AF3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3742,51 +3857,73 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
-        <v>1.8567673477203104</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="2"/>
-        <v>0.32407539039553629</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="3"/>
-        <v>0.19103357660558759</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="4"/>
-        <v>2.3965456729196943E-4</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.8560000000000001</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="7"/>
-        <v>0.28644993282863163</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="8"/>
-        <v>1.0268831969238381E-2</v>
+        <v>0.191</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="9"/>
-        <v>8.55483240790012E-3</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.01</v>
+      </c>
+      <c r="AF4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3842,51 +3979,73 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
-        <v>1.8912722291785748</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
-        <v>0.3217361795199421</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
-        <v>0.19191453645266457</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="4"/>
-        <v>2.5310386633163942E-4</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.891</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="7"/>
-        <v>0.28391611987967708</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="8"/>
-        <v>6.8589418136696615E-3</v>
+        <v>0.191</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="9"/>
-        <v>8.6575359398841992E-3</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AE5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AF5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3942,51 +4101,73 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
-        <v>1.8358792731976445</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
-        <v>0.33427819385591484</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="3"/>
-        <v>0.19474602985795628</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
-        <v>2.3371429673094628E-4</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.835</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="7"/>
-        <v>0.27419797801666956</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="8"/>
-        <v>6.7369737472459E-3</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="9"/>
-        <v>9.0619308329359279E-3</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AE6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AF6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4042,51 +4223,73 @@
         <v>49</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
-        <v>0.28426014611151801</v>
+        <v>1280388</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
-        <v>9.0542816183697361E-2</v>
+        <v>668</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
-        <v>6.1875160415923273E-2</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="4"/>
-        <v>0.1710700446347525</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="5"/>
-        <v>0.10827714863435185</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="6"/>
-        <v>0.80210966502025149</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="7"/>
-        <v>0.9184467356533389</v>
+        <v>0.09</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="8"/>
-        <v>1.7960323273298652E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="9"/>
-        <v>0.23626119781396135</v>
+        <v>0.17</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="10"/>
-        <v>0.27134298645933103</v>
+        <v>0.107</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="11"/>
-        <v>3.0674654597129104E-5</v>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AD7">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="AE7">
+        <v>1E-3</v>
+      </c>
+      <c r="AF7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AG7">
+        <v>0.27</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4142,51 +4345,73 @@
         <v>50</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
-        <v>0.24865314001102051</v>
+        <v>1216837</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
-        <v>7.36636940777088E-2</v>
+        <v>624</v>
       </c>
       <c r="U8">
-        <f t="shared" si="3"/>
-        <v>4.3155897491655743E-2</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
-        <v>0.17411626051127993</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="5"/>
-        <v>0.10430438129678438</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="6"/>
-        <v>0.81757539026555981</v>
+        <v>0.247</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="7"/>
-        <v>0.93951529819517066</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="8"/>
-        <v>3.5108631380847775E-3</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="9"/>
-        <v>0.21136724997600587</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="10"/>
-        <v>0.23263512057811453</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="11"/>
-        <v>3.3558240662251744E-5</v>
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AD8">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="AE8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AF8">
+        <v>0.21</v>
+      </c>
+      <c r="AG8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4242,51 +4467,73 @@
         <v>30</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
-        <v>0.28302046509878032</v>
+        <v>1134054</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
-        <v>0.1066752136875813</v>
+        <v>287</v>
       </c>
       <c r="U9">
-        <f t="shared" si="3"/>
-        <v>5.9607512310459444E-2</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="4"/>
-        <v>0.16157270008204561</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="5"/>
-        <v>0.10142617558918735</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="6"/>
-        <v>0.82086346134088872</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="7"/>
-        <v>0.89321843088850916</v>
+        <v>0.106</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="8"/>
-        <v>7.9057531772778519E-3</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="9"/>
-        <v>0.22640537478349074</v>
+        <v>0.161</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="10"/>
-        <v>0.24463049810513704</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="11"/>
-        <v>2.1705188552972958E-5</v>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AD9">
+        <v>0.89</v>
+      </c>
+      <c r="AE9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4342,66 +4589,88 @@
         <v>38</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
-        <v>0.2210886034837006</v>
+        <v>981143</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
-        <v>3.9065423530159356E-2</v>
+        <v>319</v>
       </c>
       <c r="U10">
-        <f t="shared" si="3"/>
-        <v>9.8619828992240394E-2</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="4"/>
-        <v>0.19037763625195048</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="5"/>
-        <v>0.11154602452852835</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="6"/>
-        <v>0.86643460824254581</v>
+        <v>0.22</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="7"/>
-        <v>0.97552089584907264</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="8"/>
-        <v>4.7394285149437624E-4</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="9"/>
-        <v>0.21693873516391185</v>
+        <v>0.189</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="10"/>
-        <v>0.23774279642168733</v>
+        <v>0.111</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="11"/>
-        <v>3.3537855413009863E-5</v>
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0.216</v>
+      </c>
+      <c r="AG10">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
